--- a/Human-Consistency Study/IDmismatch_SPrankNeg_sample100_3.xlsx
+++ b/Human-Consistency Study/IDmismatch_SPrankNeg_sample100_3.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayili/Desktop/paper/third_work/大修/human_study_last/Human-Consistency Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8055E8-1C9A-F94F-8BB1-74E13159F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1149C134-684C-3841-849B-4270F74505C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="808">
   <si>
     <t>label</t>
   </si>
@@ -2142,6 +2154,309 @@
   </si>
   <si>
     <t>0.6060760021209717</t>
+  </si>
+  <si>
+    <t>original_image_path</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p4714_s6018.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10586_s15542.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1172_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3598_s4574.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p7967_s10651.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1330_s12038.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2667_s3432.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p336_s610.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/058_45.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0370_c3s1_087642_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7129_s9450.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/995_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0125001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7041_s9318.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/203_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4728_s6040.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1380_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10845_s14760.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/53_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0284001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p208_s404.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/875_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p3708_s4672.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10287_s12840.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/176_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p5872_s7585.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0485_c5s1_128920_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1400_s12162.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/37_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10150_s14249.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1363_c2s3_036307_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5717_s7365.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5916_s7655.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0042001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1211_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10671_s14715.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9040_s17925.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9971_s16847.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2605_s3281.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0623_c2s2_019887_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4389_s5597.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10719_s14607.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4728_s6039.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3712_s4584.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p817_s1500.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/604_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p621_s1168.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1005_c6s2_123643_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/479_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9688_s16314.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3733_s4696.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/935_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10997_s14453.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p1530_s12372.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9989_s16889.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0068004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2597_s3258.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2628_s3332.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/146_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9730_s16420.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/241_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5482_s7021.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10396_s14348.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p11344_s13686.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9329_s15737.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1249_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3205_s4111.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/164_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p477_s872.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2450_s2941.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2021_s2244.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0847_c1s4_047056_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p7504_s10018.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7115_s9426.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1119_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0700_c4s3_067829_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9794_s16536.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7098_s9401.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10748_s14643.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10534_s15471.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1104_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/684_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4617_s5891.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0112002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9794_s16540.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9963_s16828.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5301_s6784.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2730_s3572.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4374_s5569.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0544001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/576_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10865_s14784.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1458_c5s3_058640_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2453_s2949.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/092_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0195_c6s1_037801_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10090_s15250.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0949001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9898_s17058.jpg</t>
   </si>
 </sst>
 </file>
@@ -2488,16 +2803,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2537,8 +2852,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2578,8 +2896,11 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2619,8 +2940,11 @@
       <c r="M3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2660,8 +2984,11 @@
       <c r="M4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2701,8 +3028,11 @@
       <c r="M5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2742,8 +3072,11 @@
       <c r="M6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2783,8 +3116,11 @@
       <c r="M7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2824,8 +3160,11 @@
       <c r="M8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2865,8 +3204,11 @@
       <c r="M9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2906,8 +3248,11 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2947,8 +3292,11 @@
       <c r="M11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2988,8 +3336,11 @@
       <c r="M12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3029,8 +3380,11 @@
       <c r="M13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3070,8 +3424,11 @@
       <c r="M14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3111,8 +3468,11 @@
       <c r="M15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3152,8 +3512,11 @@
       <c r="M16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3193,8 +3556,11 @@
       <c r="M17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3234,8 +3600,11 @@
       <c r="M18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3275,8 +3644,11 @@
       <c r="M19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3316,8 +3688,11 @@
       <c r="M20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3357,8 +3732,11 @@
       <c r="M21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3398,8 +3776,11 @@
       <c r="M22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3439,8 +3820,11 @@
       <c r="M23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3480,8 +3864,11 @@
       <c r="M24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3521,8 +3908,11 @@
       <c r="M25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3562,8 +3952,11 @@
       <c r="M26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3603,8 +3996,11 @@
       <c r="M27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3644,8 +4040,11 @@
       <c r="M28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3685,8 +4084,11 @@
       <c r="M29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3726,8 +4128,11 @@
       <c r="M30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3767,8 +4172,11 @@
       <c r="M31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3808,8 +4216,11 @@
       <c r="M32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3849,8 +4260,11 @@
       <c r="M33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3890,8 +4304,11 @@
       <c r="M34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3931,8 +4348,11 @@
       <c r="M35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3972,8 +4392,11 @@
       <c r="M36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -4013,8 +4436,11 @@
       <c r="M37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -4054,8 +4480,11 @@
       <c r="M38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -4095,8 +4524,11 @@
       <c r="M39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4136,8 +4568,11 @@
       <c r="M40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4177,8 +4612,11 @@
       <c r="M41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -4218,8 +4656,11 @@
       <c r="M42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4259,8 +4700,11 @@
       <c r="M43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -4300,8 +4744,11 @@
       <c r="M44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4341,8 +4788,11 @@
       <c r="M45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4382,8 +4832,11 @@
       <c r="M46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4423,8 +4876,11 @@
       <c r="M47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -4464,8 +4920,11 @@
       <c r="M48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4505,8 +4964,11 @@
       <c r="M49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -4546,8 +5008,11 @@
       <c r="M50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4587,8 +5052,11 @@
       <c r="M51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4628,8 +5096,11 @@
       <c r="M52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4669,8 +5140,11 @@
       <c r="M53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4710,8 +5184,11 @@
       <c r="M54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4751,8 +5228,11 @@
       <c r="M55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4792,8 +5272,11 @@
       <c r="M56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4833,8 +5316,11 @@
       <c r="M57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4874,8 +5360,11 @@
       <c r="M58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -4915,8 +5404,11 @@
       <c r="M59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4956,8 +5448,11 @@
       <c r="M60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -4997,8 +5492,11 @@
       <c r="M61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -5038,8 +5536,11 @@
       <c r="M62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -5079,8 +5580,11 @@
       <c r="M63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -5120,8 +5624,11 @@
       <c r="M64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -5161,8 +5668,11 @@
       <c r="M65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5202,8 +5712,11 @@
       <c r="M66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -5243,8 +5756,11 @@
       <c r="M67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -5284,8 +5800,11 @@
       <c r="M68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5325,8 +5844,11 @@
       <c r="M69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -5366,8 +5888,11 @@
       <c r="M70" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5407,8 +5932,11 @@
       <c r="M71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5448,8 +5976,11 @@
       <c r="M72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -5489,8 +6020,11 @@
       <c r="M73" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5530,8 +6064,11 @@
       <c r="M74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5571,8 +6108,11 @@
       <c r="M75" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5612,8 +6152,11 @@
       <c r="M76" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5653,8 +6196,11 @@
       <c r="M77" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5694,8 +6240,11 @@
       <c r="M78" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5735,8 +6284,11 @@
       <c r="M79" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5776,8 +6328,11 @@
       <c r="M80" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -5817,8 +6372,11 @@
       <c r="M81" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5858,8 +6416,11 @@
       <c r="M82" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -5899,8 +6460,11 @@
       <c r="M83" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5940,8 +6504,11 @@
       <c r="M84" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -5981,8 +6548,11 @@
       <c r="M85" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -6022,8 +6592,11 @@
       <c r="M86" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -6063,8 +6636,11 @@
       <c r="M87" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -6104,8 +6680,11 @@
       <c r="M88" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6145,8 +6724,11 @@
       <c r="M89" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6186,8 +6768,11 @@
       <c r="M90" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -6227,8 +6812,11 @@
       <c r="M91" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6268,8 +6856,11 @@
       <c r="M92" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6309,8 +6900,11 @@
       <c r="M93" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6350,8 +6944,11 @@
       <c r="M94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -6391,8 +6988,11 @@
       <c r="M95" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -6432,8 +7032,11 @@
       <c r="M96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -6473,8 +7076,11 @@
       <c r="M97" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -6514,8 +7120,11 @@
       <c r="M98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -6555,8 +7164,11 @@
       <c r="M99" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -6596,8 +7208,11 @@
       <c r="M100" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -6636,6 +7251,9 @@
       </c>
       <c r="M101" t="s">
         <v>24</v>
+      </c>
+      <c r="N101" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>

--- a/Human-Consistency Study/IDmismatch_SPrankNeg_sample100_3.xlsx
+++ b/Human-Consistency Study/IDmismatch_SPrankNeg_sample100_3.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayili/Desktop/paper/third_work/大修/human_study_last/Human-Consistency Study/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1149C134-684C-3841-849B-4270F74505C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="707">
   <si>
     <t>label</t>
   </si>
@@ -55,9 +37,6 @@
     <t>retrieved_pid</t>
   </si>
   <si>
-    <t>image_path</t>
-  </si>
-  <si>
     <t>is_id_match</t>
   </si>
   <si>
@@ -73,6 +52,9 @@
     <t>category</t>
   </si>
   <si>
+    <t>original_image_path</t>
+  </si>
+  <si>
     <t>different</t>
   </si>
   <si>
@@ -94,9 +76,6 @@
     <t>12828</t>
   </si>
   <si>
-    <t>./neg_images/000__qPID-12092__gPID-12828__qIdx-546__r-7__p4714_s6018.jpg</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -109,6 +88,9 @@
     <t>IDmismatch_SPrankNeg</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p4714_s6018.jpg</t>
+  </si>
+  <si>
     <t>same</t>
   </si>
   <si>
@@ -130,12 +112,12 @@
     <t>12978</t>
   </si>
   <si>
-    <t>./neg_images/001__qPID-12149__gPID-12978__qIdx-899__r-6__p10586_s15542.jpg</t>
-  </si>
-  <si>
     <t>0.2389824390411377</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10586_s15542.jpg</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
@@ -151,12 +133,12 @@
     <t>12752</t>
   </si>
   <si>
-    <t>./neg_images/002__qPID-12137__gPID-12752__qIdx-829__r-7__1172_4.jpg</t>
-  </si>
-  <si>
     <t>0.3577861785888672</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1172_4.jpg</t>
+  </si>
+  <si>
     <t>003</t>
   </si>
   <si>
@@ -175,12 +157,12 @@
     <t>12392</t>
   </si>
   <si>
-    <t>./neg_images/003__qPID-12589__gPID-12392__qIdx-3567__r-10__p3598_s4574.jpg</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3598_s4574.jpg</t>
+  </si>
+  <si>
     <t>004</t>
   </si>
   <si>
@@ -199,12 +181,12 @@
     <t>12170</t>
   </si>
   <si>
-    <t>./neg_images/004__qPID-12269__gPID-12170__qIdx-1679__r-9__p7967_s10651.jpg</t>
-  </si>
-  <si>
     <t>0.4971573054790497</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p7967_s10651.jpg</t>
+  </si>
+  <si>
     <t>005</t>
   </si>
   <si>
@@ -220,12 +202,12 @@
     <t>12071</t>
   </si>
   <si>
-    <t>./neg_images/005__qPID-12502__gPID-12071__qIdx-3030__r-10__p1330_s12038.jpg</t>
-  </si>
-  <si>
     <t>0.4551433324813843</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1330_s12038.jpg</t>
+  </si>
+  <si>
     <t>006</t>
   </si>
   <si>
@@ -244,12 +226,12 @@
     <t>12444</t>
   </si>
   <si>
-    <t>./neg_images/006__qPID-12408__gPID-12444__qIdx-2489__r-5__p2667_s3432.jpg</t>
-  </si>
-  <si>
     <t>0.2948858141899109</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2667_s3432.jpg</t>
+  </si>
+  <si>
     <t>007</t>
   </si>
   <si>
@@ -265,12 +247,12 @@
     <t>12025</t>
   </si>
   <si>
-    <t>./neg_images/007__qPID-12987__gPID-12025__qIdx-6049__r-10__p336_s610.jpg</t>
-  </si>
-  <si>
     <t>0.3968924880027771</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p336_s610.jpg</t>
+  </si>
+  <si>
     <t>008</t>
   </si>
   <si>
@@ -286,12 +268,12 @@
     <t>12625</t>
   </si>
   <si>
-    <t>./neg_images/008__qPID-12343__gPID-12625__qIdx-2112__r-9__058_45.bmp</t>
-  </si>
-  <si>
     <t>0.40002360939979553</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_a/058_45.bmp</t>
+  </si>
+  <si>
     <t>009</t>
   </si>
   <si>
@@ -307,12 +289,12 @@
     <t>12167</t>
   </si>
   <si>
-    <t>./neg_images/009__qPID-12988__gPID-12167__qIdx-6058__r-7__0370_c3s1_087642_00.jpg</t>
-  </si>
-  <si>
     <t>0.5444045066833496</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0370_c3s1_087642_00.jpg</t>
+  </si>
+  <si>
     <t>010</t>
   </si>
   <si>
@@ -328,12 +310,12 @@
     <t>12062</t>
   </si>
   <si>
-    <t>./neg_images/010__qPID-12059__gPID-12062__qIdx-338__r-7__p7129_s9450.jpg</t>
-  </si>
-  <si>
     <t>0.3341923952102661</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7129_s9450.jpg</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
@@ -349,12 +331,12 @@
     <t>12261</t>
   </si>
   <si>
-    <t>./neg_images/011__qPID-12947__gPID-12261__qIdx-5820__r-7__995_4.jpg</t>
-  </si>
-  <si>
     <t>0.35028403997421265</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/995_4.jpg</t>
+  </si>
+  <si>
     <t>012</t>
   </si>
   <si>
@@ -370,12 +352,12 @@
     <t>12358</t>
   </si>
   <si>
-    <t>./neg_images/012__qPID-12252__gPID-12358__qIdx-1567__r-5__0125001.png</t>
-  </si>
-  <si>
     <t>0.4251978397369385</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0125001.png</t>
+  </si>
+  <si>
     <t>013</t>
   </si>
   <si>
@@ -394,12 +376,12 @@
     <t>12038</t>
   </si>
   <si>
-    <t>./neg_images/013__qPID-12704__gPID-12038__qIdx-4286__r-8__p7041_s9318.jpg</t>
-  </si>
-  <si>
     <t>0.45770010352134705</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7041_s9318.jpg</t>
+  </si>
+  <si>
     <t>014</t>
   </si>
   <si>
@@ -415,12 +397,12 @@
     <t>12737</t>
   </si>
   <si>
-    <t>./neg_images/014__qPID-12644__gPID-12737__qIdx-3909__r-9__203_4.jpg</t>
-  </si>
-  <si>
     <t>0.5940198302268982</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/203_4.jpg</t>
+  </si>
+  <si>
     <t>015</t>
   </si>
   <si>
@@ -436,12 +418,12 @@
     <t>12595</t>
   </si>
   <si>
-    <t>./neg_images/015__qPID-12830__gPID-12595__qIdx-5097__r-8__p4728_s6040.jpg</t>
-  </si>
-  <si>
     <t>0.44904476404190063</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4728_s6040.jpg</t>
+  </si>
+  <si>
     <t>016</t>
   </si>
   <si>
@@ -457,12 +439,12 @@
     <t>12954</t>
   </si>
   <si>
-    <t>./neg_images/016__qPID-12606__gPID-12954__qIdx-3689__r-10__1380_4.jpg</t>
-  </si>
-  <si>
     <t>0.5132495164871216</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1380_4.jpg</t>
+  </si>
+  <si>
     <t>017</t>
   </si>
   <si>
@@ -478,12 +460,12 @@
     <t>12730</t>
   </si>
   <si>
-    <t>./neg_images/017__qPID-12890__gPID-12730__qIdx-5456__r-8__p10845_s14760.jpg</t>
-  </si>
-  <si>
     <t>0.5152952671051025</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10845_s14760.jpg</t>
+  </si>
+  <si>
     <t>018</t>
   </si>
   <si>
@@ -499,12 +481,12 @@
     <t>12242</t>
   </si>
   <si>
-    <t>./neg_images/018__qPID-12727__gPID-12242__qIdx-4436__r-10__53_2.jpg</t>
-  </si>
-  <si>
     <t>0.6385020017623901</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/53_2.jpg</t>
+  </si>
+  <si>
     <t>019</t>
   </si>
   <si>
@@ -520,12 +502,12 @@
     <t>12532</t>
   </si>
   <si>
-    <t>./neg_images/019__qPID-12818__gPID-12532__qIdx-5029__r-5__0284001.png</t>
-  </si>
-  <si>
     <t>0.49430766701698303</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0284001.png</t>
+  </si>
+  <si>
     <t>020</t>
   </si>
   <si>
@@ -541,7 +523,7 @@
     <t>12577</t>
   </si>
   <si>
-    <t>./neg_images/020__qPID-12434__gPID-12577__qIdx-2655__r-10__p208_s404.jpg</t>
+    <t>./CUHK-PEDES/imgs/train_query/p208_s404.jpg</t>
   </si>
   <si>
     <t>021</t>
@@ -559,7 +541,7 @@
     <t>12981</t>
   </si>
   <si>
-    <t>./neg_images/021__qPID-12059__gPID-12981__qIdx-340__r-1__875_1.jpg</t>
+    <t>./CUHK-PEDES/imgs/CUHK03/875_1.jpg</t>
   </si>
   <si>
     <t>022</t>
@@ -577,12 +559,12 @@
     <t>12294</t>
   </si>
   <si>
-    <t>./neg_images/022__qPID-12046__gPID-12294__qIdx-258__r-9__p3708_s4672.jpg</t>
-  </si>
-  <si>
     <t>0.40098443627357483</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p3708_s4672.jpg</t>
+  </si>
+  <si>
     <t>023</t>
   </si>
   <si>
@@ -598,12 +580,12 @@
     <t>12431</t>
   </si>
   <si>
-    <t>./neg_images/023__qPID-12593__gPID-12431__qIdx-3599__r-9__p10287_s12840.jpg</t>
-  </si>
-  <si>
     <t>0.6239544153213501</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10287_s12840.jpg</t>
+  </si>
+  <si>
     <t>024</t>
   </si>
   <si>
@@ -619,12 +601,12 @@
     <t>12913</t>
   </si>
   <si>
-    <t>./neg_images/024__qPID-12758__gPID-12913__qIdx-4653__r-9__176_2.jpg</t>
-  </si>
-  <si>
     <t>0.49771547317504883</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/176_2.jpg</t>
+  </si>
+  <si>
     <t>025</t>
   </si>
   <si>
@@ -640,12 +622,12 @@
     <t>12903</t>
   </si>
   <si>
-    <t>./neg_images/025__qPID-12518__gPID-12903__qIdx-3128__r-10__p5872_s7585.jpg</t>
-  </si>
-  <si>
     <t>0.46426209807395935</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p5872_s7585.jpg</t>
+  </si>
+  <si>
     <t>026</t>
   </si>
   <si>
@@ -664,12 +646,12 @@
     <t>12423</t>
   </si>
   <si>
-    <t>./neg_images/026__qPID-12620__gPID-12423__qIdx-3770__r-3__0485_c5s1_128920_00.jpg</t>
-  </si>
-  <si>
     <t>0.27647560834884644</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0485_c5s1_128920_00.jpg</t>
+  </si>
+  <si>
     <t>027</t>
   </si>
   <si>
@@ -685,10 +667,10 @@
     <t>12587</t>
   </si>
   <si>
-    <t>./neg_images/027__qPID-12691__gPID-12587__qIdx-4206__r-7__p1400_s12162.jpg</t>
-  </si>
-  <si>
     <t>0.4726298451423645</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1400_s12162.jpg</t>
   </si>
   <si>
     <t>028</t>
@@ -707,12 +689,12 @@
     <t>12613</t>
   </si>
   <si>
-    <t>./neg_images/028__qPID-12860__gPID-12613__qIdx-5267__r-3__37_3.jpg</t>
-  </si>
-  <si>
     <t>0.5332599878311157</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/37_3.jpg</t>
+  </si>
+  <si>
     <t>029</t>
   </si>
   <si>
@@ -728,12 +710,12 @@
     <t>12346</t>
   </si>
   <si>
-    <t>./neg_images/029__qPID-12262__gPID-12346__qIdx-1633__r-6__p10150_s14249.jpg</t>
-  </si>
-  <si>
     <t>0.5058932900428772</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10150_s14249.jpg</t>
+  </si>
+  <si>
     <t>030</t>
   </si>
   <si>
@@ -746,12 +728,12 @@
     <t xml:space="preserve">The woman is wearing a black dress and black shoes. The woman is walking. The woman has black hair. </t>
   </si>
   <si>
-    <t>./neg_images/030__qPID-12917__gPID-12434__qIdx-5619__r-9__p1849_s1941.jpg</t>
-  </si>
-  <si>
     <t>0.4706239402294159</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
+  </si>
+  <si>
     <t>031</t>
   </si>
   <si>
@@ -767,12 +749,12 @@
     <t>12225</t>
   </si>
   <si>
-    <t>./neg_images/031__qPID-12284__gPID-12225__qIdx-1762__r-5__1363_c2s3_036307_00.jpg</t>
-  </si>
-  <si>
     <t>0.6383022665977478</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1363_c2s3_036307_00.jpg</t>
+  </si>
+  <si>
     <t>032</t>
   </si>
   <si>
@@ -788,12 +770,12 @@
     <t>12804</t>
   </si>
   <si>
-    <t>./neg_images/032__qPID-12382__gPID-12804__qIdx-2344__r-8__p5717_s7365.jpg</t>
-  </si>
-  <si>
     <t>0.4481511116027832</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5717_s7365.jpg</t>
+  </si>
+  <si>
     <t>033</t>
   </si>
   <si>
@@ -809,12 +791,12 @@
     <t>12297</t>
   </si>
   <si>
-    <t>./neg_images/033__qPID-12373__gPID-12297__qIdx-2294__r-10__p5916_s7655.jpg</t>
-  </si>
-  <si>
     <t>0.4533889889717102</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5916_s7655.jpg</t>
+  </si>
+  <si>
     <t>034</t>
   </si>
   <si>
@@ -830,12 +812,12 @@
     <t>12617</t>
   </si>
   <si>
-    <t>./neg_images/034__qPID-12040__gPID-12617__qIdx-228__r-1__0042001.png</t>
-  </si>
-  <si>
     <t>0.6145248413085938</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0042001.png</t>
+  </si>
+  <si>
     <t>035</t>
   </si>
   <si>
@@ -854,12 +836,12 @@
     <t>12155</t>
   </si>
   <si>
-    <t>./neg_images/035__qPID-12282__gPID-12155__qIdx-1756__r-2__1211_4.jpg</t>
-  </si>
-  <si>
     <t>0.38975849747657776</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1211_4.jpg</t>
+  </si>
+  <si>
     <t>036</t>
   </si>
   <si>
@@ -875,12 +857,12 @@
     <t>12677</t>
   </si>
   <si>
-    <t>./neg_images/036__qPID-12529__gPID-12677__qIdx-3189__r-6__p10671_s14715.jpg</t>
-  </si>
-  <si>
     <t>0.5966452360153198</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10671_s14715.jpg</t>
+  </si>
+  <si>
     <t>037</t>
   </si>
   <si>
@@ -896,12 +878,12 @@
     <t>12904</t>
   </si>
   <si>
-    <t>./neg_images/037__qPID-12277__gPID-12904__qIdx-1722__r-5__p9040_s17925.jpg</t>
-  </si>
-  <si>
     <t>0.5053930878639221</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9040_s17925.jpg</t>
+  </si>
+  <si>
     <t>038</t>
   </si>
   <si>
@@ -917,12 +899,12 @@
     <t>12858</t>
   </si>
   <si>
-    <t>./neg_images/038__qPID-12216__gPID-12858__qIdx-1351__r-9__p9971_s16847.jpg</t>
-  </si>
-  <si>
     <t>0.4858548939228058</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9971_s16847.jpg</t>
+  </si>
+  <si>
     <t>039</t>
   </si>
   <si>
@@ -938,12 +920,12 @@
     <t>12931</t>
   </si>
   <si>
-    <t>./neg_images/039__qPID-12832__gPID-12931__qIdx-5110__r-8__p2605_s3281.jpg</t>
-  </si>
-  <si>
     <t>0.4870927333831787</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2605_s3281.jpg</t>
+  </si>
+  <si>
     <t>040</t>
   </si>
   <si>
@@ -956,12 +938,12 @@
     <t>12028</t>
   </si>
   <si>
-    <t>./neg_images/040__qPID-12832__gPID-12028__qIdx-5111__r-6__0623_c2s2_019887_00.jpg</t>
-  </si>
-  <si>
     <t>0.48253166675567627</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0623_c2s2_019887_00.jpg</t>
+  </si>
+  <si>
     <t>041</t>
   </si>
   <si>
@@ -974,12 +956,12 @@
     <t>12380</t>
   </si>
   <si>
-    <t>./neg_images/041__qPID-12587__gPID-12380__qIdx-3557__r-3__p4389_s5597.jpg</t>
-  </si>
-  <si>
     <t>0.4071823060512543</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4389_s5597.jpg</t>
+  </si>
+  <si>
     <t>042</t>
   </si>
   <si>
@@ -995,12 +977,12 @@
     <t>12855</t>
   </si>
   <si>
-    <t>./neg_images/042__qPID-12839__gPID-12855__qIdx-5142__r-7__p10719_s14607.jpg</t>
-  </si>
-  <si>
     <t>0.6345858573913574</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10719_s14607.jpg</t>
+  </si>
+  <si>
     <t>043</t>
   </si>
   <si>
@@ -1013,12 +995,12 @@
     <t>The woman has short hair.  She wears a jacket and black shirt.  She has on pants and shoes.</t>
   </si>
   <si>
-    <t>./neg_images/043__qPID-12916__gPID-12595__qIdx-5612__r-9__p4728_s6039.jpg</t>
-  </si>
-  <si>
     <t>0.30813395977020264</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4728_s6039.jpg</t>
+  </si>
+  <si>
     <t>044</t>
   </si>
   <si>
@@ -1034,12 +1016,12 @@
     <t>12355</t>
   </si>
   <si>
-    <t>./neg_images/044__qPID-12953__gPID-12355__qIdx-5856__r-8__p3712_s4584.jpg</t>
-  </si>
-  <si>
     <t>0.2304975986480713</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3712_s4584.jpg</t>
+  </si>
+  <si>
     <t>045</t>
   </si>
   <si>
@@ -1055,12 +1037,12 @@
     <t>12573</t>
   </si>
   <si>
-    <t>./neg_images/045__qPID-12729__gPID-12573__qIdx-4443__r-10__p817_s1500.jpg</t>
-  </si>
-  <si>
     <t>0.32058602571487427</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p817_s1500.jpg</t>
+  </si>
+  <si>
     <t>046</t>
   </si>
   <si>
@@ -1079,12 +1061,12 @@
     <t>12265</t>
   </si>
   <si>
-    <t>./neg_images/046__qPID-12676__gPID-12265__qIdx-4116__r-4__604_2.jpg</t>
-  </si>
-  <si>
     <t>0.6359323859214783</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/604_2.jpg</t>
+  </si>
+  <si>
     <t>047</t>
   </si>
   <si>
@@ -1100,12 +1082,12 @@
     <t>12757</t>
   </si>
   <si>
-    <t>./neg_images/047__qPID-12859__gPID-12757__qIdx-5263__r-8__p621_s1168.jpg</t>
-  </si>
-  <si>
     <t>0.5291203856468201</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p621_s1168.jpg</t>
+  </si>
+  <si>
     <t>048</t>
   </si>
   <si>
@@ -1121,12 +1103,12 @@
     <t>12976</t>
   </si>
   <si>
-    <t>./neg_images/048__qPID-12594__gPID-12976__qIdx-3602__r-4__1005_c6s2_123643_00.jpg</t>
-  </si>
-  <si>
     <t>0.4675295054912567</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1005_c6s2_123643_00.jpg</t>
+  </si>
+  <si>
     <t>049</t>
   </si>
   <si>
@@ -1142,12 +1124,12 @@
     <t>12209</t>
   </si>
   <si>
-    <t>./neg_images/049__qPID-12967__gPID-12209__qIdx-5929__r-10__479_4.jpg</t>
-  </si>
-  <si>
     <t>0.4145137071609497</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/479_4.jpg</t>
+  </si>
+  <si>
     <t>050</t>
   </si>
   <si>
@@ -1160,12 +1142,12 @@
     <t>This gentleman is wearing what looks like a black sport jacket, black pants, white shirt and black tie.  He also appears to be wearing some sort of turban or hat.</t>
   </si>
   <si>
-    <t>./neg_images/050__qPID-12578__gPID-12593__qIdx-3490__r-3__p9688_s16314.jpg</t>
-  </si>
-  <si>
     <t>0.6011087894439697</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9688_s16314.jpg</t>
+  </si>
+  <si>
     <t>051</t>
   </si>
   <si>
@@ -1181,12 +1163,12 @@
     <t>12618</t>
   </si>
   <si>
-    <t>./neg_images/051__qPID-12590__gPID-12618__qIdx-3576__r-9__p3733_s4696.jpg</t>
-  </si>
-  <si>
     <t>0.5647300481796265</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3733_s4696.jpg</t>
+  </si>
+  <si>
     <t>052</t>
   </si>
   <si>
@@ -1199,12 +1181,12 @@
     <t>12233</t>
   </si>
   <si>
-    <t>./neg_images/052__qPID-12729__gPID-12233__qIdx-4445__r-4__935_1.jpg</t>
-  </si>
-  <si>
     <t>0.44755828380584717</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/935_1.jpg</t>
+  </si>
+  <si>
     <t>053</t>
   </si>
   <si>
@@ -1220,12 +1202,12 @@
     <t>12384</t>
   </si>
   <si>
-    <t>./neg_images/053__qPID-12257__gPID-12384__qIdx-1602__r-2__p10997_s14453.jpg</t>
-  </si>
-  <si>
     <t>0.4372718334197998</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10997_s14453.jpg</t>
+  </si>
+  <si>
     <t>054</t>
   </si>
   <si>
@@ -1241,12 +1223,12 @@
     <t>12902</t>
   </si>
   <si>
-    <t>./neg_images/054__qPID-12654__gPID-12902__qIdx-3967__r-10__p1530_s12372.jpg</t>
-  </si>
-  <si>
     <t>0.41017913818359375</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p1530_s12372.jpg</t>
+  </si>
+  <si>
     <t>055</t>
   </si>
   <si>
@@ -1259,12 +1241,12 @@
     <t>12553</t>
   </si>
   <si>
-    <t>./neg_images/055__qPID-12752__gPID-12553__qIdx-4617__r-6__p9989_s16889.jpg</t>
-  </si>
-  <si>
     <t>0.533271312713623</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9989_s16889.jpg</t>
+  </si>
+  <si>
     <t>056</t>
   </si>
   <si>
@@ -1280,12 +1262,12 @@
     <t>12664</t>
   </si>
   <si>
-    <t>./neg_images/056__qPID-12866__gPID-12664__qIdx-5308__r-3__0068004.png</t>
-  </si>
-  <si>
     <t>0.6010127067565918</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0068004.png</t>
+  </si>
+  <si>
     <t>057</t>
   </si>
   <si>
@@ -1301,12 +1283,12 @@
     <t>12824</t>
   </si>
   <si>
-    <t>./neg_images/057__qPID-12405__gPID-12824__qIdx-2474__r-2__p2597_s3258.jpg</t>
-  </si>
-  <si>
     <t>0.37540191411972046</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2597_s3258.jpg</t>
+  </si>
+  <si>
     <t>058</t>
   </si>
   <si>
@@ -1322,12 +1304,12 @@
     <t>12247</t>
   </si>
   <si>
-    <t>./neg_images/058__qPID-12798__gPID-12247__qIdx-4917__r-4__p2628_s3332.jpg</t>
-  </si>
-  <si>
     <t>0.4350719451904297</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2628_s3332.jpg</t>
+  </si>
+  <si>
     <t>059</t>
   </si>
   <si>
@@ -1343,12 +1325,12 @@
     <t>12101</t>
   </si>
   <si>
-    <t>./neg_images/059__qPID-12450__gPID-12101__qIdx-2755__r-10__146_2.jpg</t>
-  </si>
-  <si>
     <t>0.43369513750076294</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/146_2.jpg</t>
+  </si>
+  <si>
     <t>060</t>
   </si>
   <si>
@@ -1364,12 +1346,12 @@
     <t>12337</t>
   </si>
   <si>
-    <t>./neg_images/060__qPID-12811__gPID-12337__qIdx-4989__r-10__p9730_s16420.jpg</t>
-  </si>
-  <si>
     <t>0.35626986622810364</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9730_s16420.jpg</t>
+  </si>
+  <si>
     <t>061</t>
   </si>
   <si>
@@ -1385,12 +1367,12 @@
     <t>12292</t>
   </si>
   <si>
-    <t>./neg_images/061__qPID-12817__gPID-12292__qIdx-5015__r-10__241_3.jpg</t>
-  </si>
-  <si>
     <t>0.5474523305892944</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/241_3.jpg</t>
+  </si>
+  <si>
     <t>062</t>
   </si>
   <si>
@@ -1406,12 +1388,12 @@
     <t>12447</t>
   </si>
   <si>
-    <t>./neg_images/062__qPID-12842__gPID-12447__qIdx-5157__r-7__p5482_s7021.jpg</t>
-  </si>
-  <si>
     <t>0.5182653665542603</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5482_s7021.jpg</t>
+  </si>
+  <si>
     <t>063</t>
   </si>
   <si>
@@ -1424,12 +1406,12 @@
     <t>12227</t>
   </si>
   <si>
-    <t>./neg_images/063__qPID-12578__gPID-12227__qIdx-3492__r-3__p10396_s14348.jpg</t>
-  </si>
-  <si>
     <t>0.6327434778213501</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10396_s14348.jpg</t>
+  </si>
+  <si>
     <t>064</t>
   </si>
   <si>
@@ -1445,12 +1427,12 @@
     <t>12492</t>
   </si>
   <si>
-    <t>./neg_images/064__qPID-12743__gPID-12492__qIdx-4549__r-6__p11344_s13686.jpg</t>
-  </si>
-  <si>
     <t>0.4608559012413025</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p11344_s13686.jpg</t>
+  </si>
+  <si>
     <t>065</t>
   </si>
   <si>
@@ -1463,12 +1445,12 @@
     <t>12872</t>
   </si>
   <si>
-    <t>./neg_images/065__qPID-12752__gPID-12872__qIdx-4613__r-5__p9329_s15737.jpg</t>
-  </si>
-  <si>
     <t>0.5493555068969727</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9329_s15737.jpg</t>
+  </si>
+  <si>
     <t>066</t>
   </si>
   <si>
@@ -1484,12 +1466,12 @@
     <t>12411</t>
   </si>
   <si>
-    <t>./neg_images/066__qPID-12572__gPID-12411__qIdx-3457__r-5__1249_1.jpg</t>
-  </si>
-  <si>
     <t>0.46493959426879883</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1249_1.jpg</t>
+  </si>
+  <si>
     <t>067</t>
   </si>
   <si>
@@ -1505,12 +1487,12 @@
     <t>12886</t>
   </si>
   <si>
-    <t>./neg_images/067__qPID-12919__gPID-12886__qIdx-5632__r-8__p3205_s4111.jpg</t>
-  </si>
-  <si>
     <t>0.2357707917690277</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3205_s4111.jpg</t>
+  </si>
+  <si>
     <t>068</t>
   </si>
   <si>
@@ -1523,12 +1505,12 @@
     <t>12468</t>
   </si>
   <si>
-    <t>./neg_images/068__qPID-12913__gPID-12468__qIdx-5589__r-9__164_90.bmp</t>
-  </si>
-  <si>
     <t>0.5819052457809448</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_b/164_90.bmp</t>
+  </si>
+  <si>
     <t>069</t>
   </si>
   <si>
@@ -1544,12 +1526,12 @@
     <t>12693</t>
   </si>
   <si>
-    <t>./neg_images/069__qPID-12746__gPID-12693__qIdx-4568__r-8__p477_s872.jpg</t>
-  </si>
-  <si>
     <t>0.42773663997650146</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p477_s872.jpg</t>
+  </si>
+  <si>
     <t>070</t>
   </si>
   <si>
@@ -1565,12 +1547,12 @@
     <t>12159</t>
   </si>
   <si>
-    <t>./neg_images/070__qPID-12793__gPID-12159__qIdx-4884__r-4__p2450_s2941.jpg</t>
-  </si>
-  <si>
     <t>0.4109129011631012</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2450_s2941.jpg</t>
+  </si>
+  <si>
     <t>071</t>
   </si>
   <si>
@@ -1586,12 +1568,12 @@
     <t>12026</t>
   </si>
   <si>
-    <t>./neg_images/071__qPID-12360__gPID-12026__qIdx-2206__r-6__p2021_s2244.jpg</t>
-  </si>
-  <si>
     <t>0.5777014493942261</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2021_s2244.jpg</t>
+  </si>
+  <si>
     <t>072</t>
   </si>
   <si>
@@ -1607,12 +1589,12 @@
     <t>12481</t>
   </si>
   <si>
-    <t>./neg_images/072__qPID-12528__gPID-12481__qIdx-3185__r-7__0847_c1s4_047056_00.jpg</t>
-  </si>
-  <si>
     <t>0.4795449376106262</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0847_c1s4_047056_00.jpg</t>
+  </si>
+  <si>
     <t>073</t>
   </si>
   <si>
@@ -1625,12 +1607,12 @@
     <t>12293</t>
   </si>
   <si>
-    <t>./neg_images/073__qPID-12265__gPID-12293__qIdx-1646__r-3__p7504_s10018.jpg</t>
-  </si>
-  <si>
     <t>0.37431907653808594</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p7504_s10018.jpg</t>
+  </si>
+  <si>
     <t>074</t>
   </si>
   <si>
@@ -1646,12 +1628,12 @@
     <t>12290</t>
   </si>
   <si>
-    <t>./neg_images/074__qPID-12079__gPID-12290__qIdx-459__r-7__p7115_s9426.jpg</t>
-  </si>
-  <si>
     <t>0.2538595199584961</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7115_s9426.jpg</t>
+  </si>
+  <si>
     <t>075</t>
   </si>
   <si>
@@ -1667,12 +1649,12 @@
     <t>12231</t>
   </si>
   <si>
-    <t>./neg_images/075__qPID-12782__gPID-12231__qIdx-4821__r-8__1119_3.jpg</t>
-  </si>
-  <si>
     <t>0.353445827960968</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1119_3.jpg</t>
+  </si>
+  <si>
     <t>076</t>
   </si>
   <si>
@@ -1688,12 +1670,12 @@
     <t>12145</t>
   </si>
   <si>
-    <t>./neg_images/076__qPID-12503__gPID-12145__qIdx-3043__r-10__0700_c4s3_067829_00.jpg</t>
-  </si>
-  <si>
     <t>0.5086201429367065</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0700_c4s3_067829_00.jpg</t>
+  </si>
+  <si>
     <t>077</t>
   </si>
   <si>
@@ -1706,12 +1688,12 @@
     <t>12440</t>
   </si>
   <si>
-    <t>./neg_images/077__qPID-12492__gPID-12440__qIdx-2984__r-10__p9794_s16536.jpg</t>
-  </si>
-  <si>
     <t>0.46710216999053955</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9794_s16536.jpg</t>
+  </si>
+  <si>
     <t>078</t>
   </si>
   <si>
@@ -1727,12 +1709,12 @@
     <t>12370</t>
   </si>
   <si>
-    <t>./neg_images/078__qPID-12822__gPID-12370__qIdx-5047__r-4__p7098_s9401.jpg</t>
-  </si>
-  <si>
     <t>0.4702933430671692</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7098_s9401.jpg</t>
+  </si>
+  <si>
     <t>079</t>
   </si>
   <si>
@@ -1745,12 +1727,12 @@
     <t>12287</t>
   </si>
   <si>
-    <t>./neg_images/079__qPID-12919__gPID-12287__qIdx-5633__r-10__p10748_s14643.jpg</t>
-  </si>
-  <si>
     <t>0.4813001751899719</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10748_s14643.jpg</t>
+  </si>
+  <si>
     <t>080</t>
   </si>
   <si>
@@ -1766,12 +1748,12 @@
     <t>12885</t>
   </si>
   <si>
-    <t>./neg_images/080__qPID-12846__gPID-12885__qIdx-5181__r-9__p10534_s15471.jpg</t>
-  </si>
-  <si>
     <t>0.4273238778114319</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10534_s15471.jpg</t>
+  </si>
+  <si>
     <t>081</t>
   </si>
   <si>
@@ -1787,12 +1769,12 @@
     <t>12994</t>
   </si>
   <si>
-    <t>./neg_images/081__qPID-12827__gPID-12994__qIdx-5079__r-5__1104_1.jpg</t>
-  </si>
-  <si>
     <t>0.5129519701004028</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1104_1.jpg</t>
+  </si>
+  <si>
     <t>082</t>
   </si>
   <si>
@@ -1808,12 +1790,12 @@
     <t>12268</t>
   </si>
   <si>
-    <t>./neg_images/082__qPID-13003__gPID-12268__qIdx-6154__r-10__684_3.jpg</t>
-  </si>
-  <si>
     <t>0.4357295036315918</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/684_3.jpg</t>
+  </si>
+  <si>
     <t>083</t>
   </si>
   <si>
@@ -1829,12 +1811,12 @@
     <t>12048</t>
   </si>
   <si>
-    <t>./neg_images/083__qPID-12957__gPID-12048__qIdx-5882__r-9__p4617_s5891.jpg</t>
-  </si>
-  <si>
     <t>0.522189199924469</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4617_s5891.jpg</t>
+  </si>
+  <si>
     <t>084</t>
   </si>
   <si>
@@ -1847,12 +1829,12 @@
     <t>12161</t>
   </si>
   <si>
-    <t>./neg_images/084__qPID-12664__gPID-12161__qIdx-4037__r-8__0112002.png</t>
-  </si>
-  <si>
     <t>0.578651487827301</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0112002.png</t>
+  </si>
+  <si>
     <t>085</t>
   </si>
   <si>
@@ -1865,12 +1847,12 @@
     <t>The man wears a light brown jacket and black pants with grey sneakers he carries a brown shoulder bag walking along the street.</t>
   </si>
   <si>
-    <t>./neg_images/085__qPID-12508__gPID-12440__qIdx-3069__r-6__p9794_s16540.jpg</t>
-  </si>
-  <si>
     <t>0.45986276865005493</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9794_s16540.jpg</t>
+  </si>
+  <si>
     <t>086</t>
   </si>
   <si>
@@ -1886,12 +1868,12 @@
     <t>12763</t>
   </si>
   <si>
-    <t>./neg_images/086__qPID-12336__gPID-12763__qIdx-2073__r-8__p9963_s16828.jpg</t>
-  </si>
-  <si>
     <t>0.5152895450592041</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9963_s16828.jpg</t>
+  </si>
+  <si>
     <t>087</t>
   </si>
   <si>
@@ -1907,12 +1889,12 @@
     <t>12147</t>
   </si>
   <si>
-    <t>./neg_images/087__qPID-12797__gPID-12147__qIdx-4906__r-4__p5301_s6784.jpg</t>
-  </si>
-  <si>
     <t>0.44654005765914917</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5301_s6784.jpg</t>
+  </si>
+  <si>
     <t>088</t>
   </si>
   <si>
@@ -1928,12 +1910,12 @@
     <t>12491</t>
   </si>
   <si>
-    <t>./neg_images/088__qPID-12835__gPID-12491__qIdx-5125__r-8__p2730_s3572.jpg</t>
-  </si>
-  <si>
     <t>0.4279283285140991</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2730_s3572.jpg</t>
+  </si>
+  <si>
     <t>089</t>
   </si>
   <si>
@@ -1949,12 +1931,12 @@
     <t>12228</t>
   </si>
   <si>
-    <t>./neg_images/089__qPID-12597__gPID-12228__qIdx-3629__r-8__p4374_s5569.jpg</t>
-  </si>
-  <si>
     <t>0.5989501476287842</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4374_s5569.jpg</t>
+  </si>
+  <si>
     <t>090</t>
   </si>
   <si>
@@ -1970,12 +1952,12 @@
     <t>12489</t>
   </si>
   <si>
-    <t>./neg_images/090__qPID-12122__gPID-12489__qIdx-728__r-7__0544001.png</t>
-  </si>
-  <si>
     <t>0.3994601368904114</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0544001.png</t>
+  </si>
+  <si>
     <t>091</t>
   </si>
   <si>
@@ -1991,12 +1973,12 @@
     <t>12367</t>
   </si>
   <si>
-    <t>./neg_images/091__qPID-12558__gPID-12367__qIdx-3369__r-6__576_2.jpg</t>
-  </si>
-  <si>
     <t>0.49066707491874695</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/576_2.jpg</t>
+  </si>
+  <si>
     <t>092</t>
   </si>
   <si>
@@ -2012,12 +1994,12 @@
     <t>12190</t>
   </si>
   <si>
-    <t>./neg_images/092__qPID-12015__gPID-12190__qIdx-82__r-6__p10865_s14784.jpg</t>
-  </si>
-  <si>
     <t>0.532572865486145</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10865_s14784.jpg</t>
+  </si>
+  <si>
     <t>093</t>
   </si>
   <si>
@@ -2033,12 +2015,12 @@
     <t>12506</t>
   </si>
   <si>
-    <t>./neg_images/093__qPID-12308__gPID-12506__qIdx-1908__r-6__1458_c5s3_058640_00.jpg</t>
-  </si>
-  <si>
     <t>0.5196278691291809</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/1458_c5s3_058640_00.jpg</t>
+  </si>
+  <si>
     <t>094</t>
   </si>
   <si>
@@ -2051,12 +2033,12 @@
     <t xml:space="preserve">The man has short, messy black hair, is wearing sunglasses, a white over-sized t-shirt with a back rectangle on the front with white lettering on it, knee-length jeans shorts, black ankle socks, and white sneakers with maroon accents. he is carrying a maroon  backpack with a back strap. </t>
   </si>
   <si>
-    <t>./neg_images/094__qPID-12169__gPID-12502__qIdx-1042__r-9__p2453_s2949.jpg</t>
-  </si>
-  <si>
     <t>0.5764776468276978</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2453_s2949.jpg</t>
+  </si>
+  <si>
     <t>095</t>
   </si>
   <si>
@@ -2072,12 +2054,12 @@
     <t>12424</t>
   </si>
   <si>
-    <t>./neg_images/095__qPID-12095__gPID-12424__qIdx-569__r-2__092_90.bmp</t>
-  </si>
-  <si>
     <t>0.36259105801582336</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/cam_b/092_90.bmp</t>
+  </si>
+  <si>
     <t>096</t>
   </si>
   <si>
@@ -2093,12 +2075,12 @@
     <t>12554</t>
   </si>
   <si>
-    <t>./neg_images/096__qPID-12938__gPID-12554__qIdx-5751__r-8__0195_c6s1_037801_00.jpg</t>
-  </si>
-  <si>
     <t>0.5770020484924316</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/Market/0195_c6s1_037801_00.jpg</t>
+  </si>
+  <si>
     <t>097</t>
   </si>
   <si>
@@ -2114,12 +2096,12 @@
     <t>12331</t>
   </si>
   <si>
-    <t>./neg_images/097__qPID-12080__gPID-12331__qIdx-463__r-7__p10090_s15250.jpg</t>
-  </si>
-  <si>
     <t>0.49939119815826416</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10090_s15250.jpg</t>
+  </si>
+  <si>
     <t>098</t>
   </si>
   <si>
@@ -2132,12 +2114,12 @@
     <t>The man is wearing a red sweat jacket with black sweats and walking towards something.</t>
   </si>
   <si>
-    <t>./neg_images/098__qPID-12441__gPID-12947__qIdx-2698__r-5__0949001.png</t>
-  </si>
-  <si>
     <t>0.44755369424819946</t>
   </si>
   <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0949001.png</t>
+  </si>
+  <si>
     <t>099</t>
   </si>
   <si>
@@ -2150,310 +2132,7 @@
     <t>Young male wears light brown cargo pants with a formal shirt, red tie and brown coat.</t>
   </si>
   <si>
-    <t>./neg_images/099__qPID-12964__gPID-12846__qIdx-5914__r-9__p9898_s17058.jpg</t>
-  </si>
-  <si>
     <t>0.6060760021209717</t>
-  </si>
-  <si>
-    <t>original_image_path</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p4714_s6018.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10586_s15542.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1172_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p3598_s4574.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p7967_s10651.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p1330_s12038.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p2667_s3432.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p336_s610.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_a/058_45.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0370_c3s1_087642_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p7129_s9450.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/995_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0125001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p7041_s9318.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/203_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p4728_s6040.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1380_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10845_s14760.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/53_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0284001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p208_s404.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/875_1.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p3708_s4672.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10287_s12840.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/176_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p5872_s7585.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0485_c5s1_128920_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p1400_s12162.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/37_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10150_s14249.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1363_c2s3_036307_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p5717_s7365.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p5916_s7655.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0042001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1211_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10671_s14715.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p9040_s17925.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9971_s16847.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p2605_s3281.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0623_c2s2_019887_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p4389_s5597.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p10719_s14607.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p4728_s6039.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p3712_s4584.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p817_s1500.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/604_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p621_s1168.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1005_c6s2_123643_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/479_4.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9688_s16314.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p3733_s4696.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/935_1.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10997_s14453.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p1530_s12372.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9989_s16889.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0068004.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p2597_s3258.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p2628_s3332.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/146_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9730_s16420.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/241_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p5482_s7021.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10396_s14348.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p11344_s13686.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9329_s15737.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1249_1.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p3205_s4111.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_b/164_90.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p477_s872.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p2450_s2941.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p2021_s2244.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0847_c1s4_047056_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p7504_s10018.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p7115_s9426.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1119_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0700_c4s3_067829_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p9794_s16536.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p7098_s9401.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p10748_s14643.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10534_s15471.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/1104_1.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/684_3.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p4617_s5891.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0112002.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p9794_s16540.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p9963_s16828.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/test_query/p5301_s6784.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p2730_s3572.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p4374_s5569.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0544001.png</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK03/576_2.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10865_s14784.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/1458_c5s3_058640_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p2453_s2949.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/cam_b/092_90.bmp</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/Market/0195_c6s1_037801_00.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/train_query/p10090_s15250.jpg</t>
-  </si>
-  <si>
-    <t>./CUHK-PEDES/imgs/CUHK01/0949001.png</t>
   </si>
   <si>
     <t>./CUHK-PEDES/imgs/train_query/p9898_s17058.jpg</t>
@@ -2462,8 +2141,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2472,22 +2157,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2495,24 +2503,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2797,22 +3091,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2852,11 +3147,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2882,7 +3174,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -2896,11 +3188,8 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2923,28 +3212,25 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2967,28 +3253,25 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3011,28 +3294,25 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3055,28 +3335,25 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
       <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3099,28 +3376,25 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>62</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>63</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3143,28 +3417,25 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
       <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
         <v>71</v>
       </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3187,28 +3458,25 @@
         <v>76</v>
       </c>
       <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>77</v>
       </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
       <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
         <v>78</v>
       </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3231,28 +3499,25 @@
         <v>83</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
       <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
         <v>85</v>
       </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3275,28 +3540,25 @@
         <v>90</v>
       </c>
       <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
         <v>91</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
       <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
         <v>92</v>
       </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3319,28 +3581,25 @@
         <v>97</v>
       </c>
       <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
         <v>98</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
       <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
         <v>99</v>
       </c>
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3363,28 +3622,25 @@
         <v>104</v>
       </c>
       <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
         <v>105</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
       <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
         <v>106</v>
       </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3407,28 +3663,25 @@
         <v>111</v>
       </c>
       <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
         <v>112</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
       <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
         <v>113</v>
       </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3451,28 +3704,25 @@
         <v>119</v>
       </c>
       <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
         <v>120</v>
       </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
       <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
         <v>121</v>
       </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3495,28 +3745,25 @@
         <v>126</v>
       </c>
       <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
         <v>127</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
       <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
         <v>128</v>
       </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3539,28 +3786,25 @@
         <v>133</v>
       </c>
       <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
         <v>134</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
       <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
         <v>135</v>
       </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3583,28 +3827,25 @@
         <v>140</v>
       </c>
       <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>141</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
       <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
         <v>142</v>
       </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3627,28 +3868,25 @@
         <v>147</v>
       </c>
       <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
         <v>148</v>
       </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
       <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
         <v>149</v>
       </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3671,28 +3909,25 @@
         <v>154</v>
       </c>
       <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
         <v>155</v>
       </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
       <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
         <v>156</v>
       </c>
-      <c r="L20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3715,28 +3950,25 @@
         <v>161</v>
       </c>
       <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
         <v>162</v>
       </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
       <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
         <v>163</v>
       </c>
-      <c r="L21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3759,28 +3991,25 @@
         <v>168</v>
       </c>
       <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
         <v>169</v>
       </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3803,28 +4032,25 @@
         <v>174</v>
       </c>
       <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
         <v>175</v>
       </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3847,28 +4073,25 @@
         <v>180</v>
       </c>
       <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
         <v>181</v>
       </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
       <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
         <v>182</v>
       </c>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3891,28 +4114,25 @@
         <v>187</v>
       </c>
       <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
         <v>188</v>
       </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
       <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
         <v>189</v>
       </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3935,28 +4155,25 @@
         <v>194</v>
       </c>
       <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
         <v>195</v>
       </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>21</v>
-      </c>
       <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s">
         <v>196</v>
       </c>
-      <c r="L26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3979,28 +4196,25 @@
         <v>201</v>
       </c>
       <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
         <v>202</v>
       </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
       <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
         <v>203</v>
       </c>
-      <c r="L27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4023,28 +4237,25 @@
         <v>209</v>
       </c>
       <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
         <v>210</v>
       </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
       <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
         <v>211</v>
       </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4067,28 +4278,25 @@
         <v>216</v>
       </c>
       <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
         <v>217</v>
       </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
       <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
         <v>218</v>
       </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -4111,28 +4319,25 @@
         <v>223</v>
       </c>
       <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
         <v>224</v>
       </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
       <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" t="s">
         <v>225</v>
       </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -4155,28 +4360,25 @@
         <v>230</v>
       </c>
       <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
         <v>231</v>
       </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
       <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" t="s">
         <v>232</v>
       </c>
-      <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -4199,28 +4401,25 @@
         <v>166</v>
       </c>
       <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
         <v>237</v>
       </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>21</v>
-      </c>
       <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
         <v>238</v>
       </c>
-      <c r="L32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -4243,28 +4442,25 @@
         <v>243</v>
       </c>
       <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
         <v>244</v>
       </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
-      </c>
       <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" t="s">
         <v>245</v>
       </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4287,28 +4483,25 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
         <v>251</v>
       </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>21</v>
-      </c>
       <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" t="s">
         <v>252</v>
       </c>
-      <c r="L34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -4331,28 +4524,25 @@
         <v>257</v>
       </c>
       <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
         <v>258</v>
       </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
-        <v>21</v>
-      </c>
       <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
         <v>259</v>
       </c>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -4375,28 +4565,25 @@
         <v>264</v>
       </c>
       <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
         <v>265</v>
       </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" t="s">
-        <v>21</v>
-      </c>
       <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" t="s">
         <v>266</v>
       </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -4419,28 +4606,25 @@
         <v>272</v>
       </c>
       <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
         <v>273</v>
       </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
       <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
         <v>274</v>
       </c>
-      <c r="L37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -4463,28 +4647,25 @@
         <v>279</v>
       </c>
       <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
         <v>280</v>
       </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>21</v>
-      </c>
       <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
         <v>281</v>
       </c>
-      <c r="L38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -4507,28 +4688,25 @@
         <v>286</v>
       </c>
       <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
         <v>287</v>
       </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
       <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" t="s">
         <v>288</v>
       </c>
-      <c r="L39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4551,28 +4729,25 @@
         <v>293</v>
       </c>
       <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
         <v>294</v>
       </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" t="s">
-        <v>21</v>
-      </c>
       <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s">
         <v>295</v>
       </c>
-      <c r="L40" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4595,28 +4770,25 @@
         <v>300</v>
       </c>
       <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
         <v>301</v>
       </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>21</v>
-      </c>
       <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
         <v>302</v>
       </c>
-      <c r="L41" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -4639,28 +4811,25 @@
         <v>306</v>
       </c>
       <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
         <v>307</v>
       </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
       <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
         <v>308</v>
       </c>
-      <c r="L42" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4683,28 +4852,25 @@
         <v>312</v>
       </c>
       <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
         <v>313</v>
       </c>
-      <c r="I43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" t="s">
-        <v>21</v>
-      </c>
       <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" t="s">
         <v>314</v>
       </c>
-      <c r="L43" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -4727,28 +4893,25 @@
         <v>319</v>
       </c>
       <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
         <v>320</v>
       </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
-        <v>21</v>
-      </c>
       <c r="K44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" t="s">
         <v>321</v>
       </c>
-      <c r="L44" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4771,28 +4934,25 @@
         <v>133</v>
       </c>
       <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
         <v>326</v>
       </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" t="s">
-        <v>21</v>
-      </c>
       <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" t="s">
         <v>327</v>
       </c>
-      <c r="L45" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4815,28 +4975,25 @@
         <v>332</v>
       </c>
       <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
         <v>333</v>
       </c>
-      <c r="I46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" t="s">
-        <v>21</v>
-      </c>
       <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" t="s">
         <v>334</v>
       </c>
-      <c r="L46" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4859,28 +5016,25 @@
         <v>339</v>
       </c>
       <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
         <v>340</v>
       </c>
-      <c r="I47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" t="s">
-        <v>21</v>
-      </c>
       <c r="K47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
         <v>341</v>
       </c>
-      <c r="L47" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -4903,28 +5057,25 @@
         <v>347</v>
       </c>
       <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
         <v>348</v>
       </c>
-      <c r="I48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" t="s">
-        <v>21</v>
-      </c>
       <c r="K48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" t="s">
         <v>349</v>
       </c>
-      <c r="L48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4947,28 +5098,25 @@
         <v>354</v>
       </c>
       <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
         <v>355</v>
       </c>
-      <c r="I49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" t="s">
-        <v>21</v>
-      </c>
       <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" t="s">
         <v>356</v>
       </c>
-      <c r="L49" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -4991,28 +5139,25 @@
         <v>361</v>
       </c>
       <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
         <v>362</v>
       </c>
-      <c r="I50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>21</v>
-      </c>
       <c r="K50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
         <v>363</v>
       </c>
-      <c r="L50" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5035,28 +5180,25 @@
         <v>368</v>
       </c>
       <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
         <v>369</v>
       </c>
-      <c r="I51" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>21</v>
-      </c>
       <c r="K51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" t="s">
         <v>370</v>
       </c>
-      <c r="L51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -5079,28 +5221,25 @@
         <v>185</v>
       </c>
       <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
         <v>375</v>
       </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" t="s">
-        <v>21</v>
-      </c>
       <c r="K52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
         <v>376</v>
       </c>
-      <c r="L52" t="s">
-        <v>23</v>
-      </c>
-      <c r="M52" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -5123,28 +5262,25 @@
         <v>381</v>
       </c>
       <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
         <v>382</v>
       </c>
-      <c r="I53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" t="s">
-        <v>21</v>
-      </c>
       <c r="K53" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" t="s">
         <v>383</v>
       </c>
-      <c r="L53" t="s">
-        <v>23</v>
-      </c>
-      <c r="M53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -5167,28 +5303,25 @@
         <v>387</v>
       </c>
       <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
         <v>388</v>
       </c>
-      <c r="I54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" t="s">
-        <v>21</v>
-      </c>
       <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" t="s">
         <v>389</v>
       </c>
-      <c r="L54" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -5211,28 +5344,25 @@
         <v>394</v>
       </c>
       <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
         <v>395</v>
       </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>21</v>
-      </c>
       <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" t="s">
         <v>396</v>
       </c>
-      <c r="L55" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -5255,28 +5385,25 @@
         <v>401</v>
       </c>
       <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
         <v>402</v>
       </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>21</v>
-      </c>
       <c r="K56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" t="s">
         <v>403</v>
       </c>
-      <c r="L56" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -5299,28 +5426,25 @@
         <v>407</v>
       </c>
       <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
         <v>408</v>
       </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>21</v>
-      </c>
       <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" t="s">
         <v>409</v>
       </c>
-      <c r="L57" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5343,28 +5467,25 @@
         <v>414</v>
       </c>
       <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
         <v>415</v>
       </c>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" t="s">
-        <v>21</v>
-      </c>
       <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" t="s">
         <v>416</v>
       </c>
-      <c r="L58" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -5387,28 +5508,25 @@
         <v>421</v>
       </c>
       <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
         <v>422</v>
       </c>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" t="s">
-        <v>21</v>
-      </c>
       <c r="K59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" t="s">
         <v>423</v>
       </c>
-      <c r="L59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -5431,28 +5549,25 @@
         <v>428</v>
       </c>
       <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
         <v>429</v>
       </c>
-      <c r="I60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" t="s">
-        <v>21</v>
-      </c>
       <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" t="s">
         <v>430</v>
       </c>
-      <c r="L60" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -5475,28 +5590,25 @@
         <v>435</v>
       </c>
       <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
         <v>436</v>
       </c>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>21</v>
-      </c>
       <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" t="s">
         <v>437</v>
       </c>
-      <c r="L61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M61" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -5519,28 +5631,25 @@
         <v>442</v>
       </c>
       <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
         <v>443</v>
       </c>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" t="s">
-        <v>21</v>
-      </c>
       <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" t="s">
         <v>444</v>
       </c>
-      <c r="L62" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -5563,28 +5672,25 @@
         <v>449</v>
       </c>
       <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
         <v>450</v>
       </c>
-      <c r="I63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" t="s">
-        <v>21</v>
-      </c>
       <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" t="s">
         <v>451</v>
       </c>
-      <c r="L63" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -5607,28 +5713,25 @@
         <v>456</v>
       </c>
       <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
         <v>457</v>
       </c>
-      <c r="I64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" t="s">
-        <v>21</v>
-      </c>
       <c r="K64" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" t="s">
         <v>458</v>
       </c>
-      <c r="L64" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -5651,28 +5754,25 @@
         <v>462</v>
       </c>
       <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
         <v>463</v>
       </c>
-      <c r="I65" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" t="s">
-        <v>21</v>
-      </c>
       <c r="K65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s">
         <v>464</v>
       </c>
-      <c r="L65" t="s">
-        <v>23</v>
-      </c>
-      <c r="M65" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5695,28 +5795,25 @@
         <v>469</v>
       </c>
       <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
         <v>470</v>
       </c>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" t="s">
-        <v>21</v>
-      </c>
       <c r="K66" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" t="s">
         <v>471</v>
       </c>
-      <c r="L66" t="s">
-        <v>23</v>
-      </c>
-      <c r="M66" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -5739,28 +5836,25 @@
         <v>475</v>
       </c>
       <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
         <v>476</v>
       </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>21</v>
-      </c>
       <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
         <v>477</v>
       </c>
-      <c r="L67" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -5783,28 +5877,25 @@
         <v>482</v>
       </c>
       <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
         <v>483</v>
       </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" t="s">
-        <v>21</v>
-      </c>
       <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
         <v>484</v>
       </c>
-      <c r="L68" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5827,28 +5918,25 @@
         <v>489</v>
       </c>
       <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
         <v>490</v>
       </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>21</v>
-      </c>
       <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" t="s">
         <v>491</v>
       </c>
-      <c r="L69" t="s">
-        <v>23</v>
-      </c>
-      <c r="M69" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -5871,28 +5959,25 @@
         <v>495</v>
       </c>
       <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
         <v>496</v>
       </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" t="s">
-        <v>21</v>
-      </c>
       <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" t="s">
         <v>497</v>
       </c>
-      <c r="L70" t="s">
-        <v>23</v>
-      </c>
-      <c r="M70" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5915,28 +6000,25 @@
         <v>502</v>
       </c>
       <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
         <v>503</v>
       </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" t="s">
-        <v>21</v>
-      </c>
       <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" t="s">
         <v>504</v>
       </c>
-      <c r="L71" t="s">
-        <v>23</v>
-      </c>
-      <c r="M71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5959,28 +6041,25 @@
         <v>509</v>
       </c>
       <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
         <v>510</v>
       </c>
-      <c r="I72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" t="s">
-        <v>21</v>
-      </c>
       <c r="K72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" t="s">
         <v>511</v>
       </c>
-      <c r="L72" t="s">
-        <v>23</v>
-      </c>
-      <c r="M72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -6003,28 +6082,25 @@
         <v>516</v>
       </c>
       <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
         <v>517</v>
       </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" t="s">
-        <v>21</v>
-      </c>
       <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" t="s">
         <v>518</v>
       </c>
-      <c r="L73" t="s">
-        <v>23</v>
-      </c>
-      <c r="M73" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -6047,28 +6123,25 @@
         <v>523</v>
       </c>
       <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
         <v>524</v>
       </c>
-      <c r="I74" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" t="s">
-        <v>21</v>
-      </c>
       <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" t="s">
         <v>525</v>
       </c>
-      <c r="L74" t="s">
-        <v>23</v>
-      </c>
-      <c r="M74" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -6091,28 +6164,25 @@
         <v>529</v>
       </c>
       <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
         <v>530</v>
       </c>
-      <c r="I75" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" t="s">
-        <v>21</v>
-      </c>
       <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" t="s">
         <v>531</v>
       </c>
-      <c r="L75" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -6135,28 +6205,25 @@
         <v>536</v>
       </c>
       <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
         <v>537</v>
       </c>
-      <c r="I76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" t="s">
-        <v>21</v>
-      </c>
       <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" t="s">
         <v>538</v>
       </c>
-      <c r="L76" t="s">
-        <v>23</v>
-      </c>
-      <c r="M76" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -6179,28 +6246,25 @@
         <v>543</v>
       </c>
       <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
         <v>544</v>
       </c>
-      <c r="I77" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" t="s">
-        <v>21</v>
-      </c>
       <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" t="s">
         <v>545</v>
       </c>
-      <c r="L77" t="s">
-        <v>23</v>
-      </c>
-      <c r="M77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -6223,28 +6287,25 @@
         <v>550</v>
       </c>
       <c r="H78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
         <v>551</v>
       </c>
-      <c r="I78" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" t="s">
-        <v>21</v>
-      </c>
       <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" t="s">
         <v>552</v>
       </c>
-      <c r="L78" t="s">
-        <v>23</v>
-      </c>
-      <c r="M78" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -6267,28 +6328,25 @@
         <v>556</v>
       </c>
       <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
         <v>557</v>
       </c>
-      <c r="I79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" t="s">
-        <v>21</v>
-      </c>
       <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" t="s">
         <v>558</v>
       </c>
-      <c r="L79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M79" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -6311,28 +6369,25 @@
         <v>563</v>
       </c>
       <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
         <v>564</v>
       </c>
-      <c r="I80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" t="s">
-        <v>21</v>
-      </c>
       <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" t="s">
         <v>565</v>
       </c>
-      <c r="L80" t="s">
-        <v>23</v>
-      </c>
-      <c r="M80" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -6355,28 +6410,25 @@
         <v>569</v>
       </c>
       <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
         <v>570</v>
       </c>
-      <c r="I81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" t="s">
-        <v>21</v>
-      </c>
       <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" t="s">
         <v>571</v>
       </c>
-      <c r="L81" t="s">
-        <v>23</v>
-      </c>
-      <c r="M81" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -6399,28 +6451,25 @@
         <v>576</v>
       </c>
       <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
         <v>577</v>
       </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>21</v>
-      </c>
       <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" t="s">
         <v>578</v>
       </c>
-      <c r="L82" t="s">
-        <v>23</v>
-      </c>
-      <c r="M82" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -6443,28 +6492,25 @@
         <v>583</v>
       </c>
       <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
         <v>584</v>
       </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" t="s">
-        <v>21</v>
-      </c>
       <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" t="s">
         <v>585</v>
       </c>
-      <c r="L83" t="s">
-        <v>23</v>
-      </c>
-      <c r="M83" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -6487,28 +6533,25 @@
         <v>590</v>
       </c>
       <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
         <v>591</v>
       </c>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-      <c r="J84" t="s">
-        <v>21</v>
-      </c>
       <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" t="s">
         <v>592</v>
       </c>
-      <c r="L84" t="s">
-        <v>23</v>
-      </c>
-      <c r="M84" t="s">
-        <v>24</v>
-      </c>
-      <c r="N84" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -6531,28 +6574,25 @@
         <v>597</v>
       </c>
       <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
         <v>598</v>
       </c>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" t="s">
-        <v>21</v>
-      </c>
       <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" t="s">
         <v>599</v>
       </c>
-      <c r="L85" t="s">
-        <v>23</v>
-      </c>
-      <c r="M85" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -6575,28 +6615,25 @@
         <v>603</v>
       </c>
       <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
         <v>604</v>
       </c>
-      <c r="I86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" t="s">
-        <v>21</v>
-      </c>
       <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" t="s">
         <v>605</v>
       </c>
-      <c r="L86" t="s">
-        <v>23</v>
-      </c>
-      <c r="M86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N86" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -6619,28 +6656,25 @@
         <v>556</v>
       </c>
       <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
         <v>610</v>
       </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" t="s">
-        <v>21</v>
-      </c>
       <c r="K87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" t="s">
         <v>611</v>
       </c>
-      <c r="L87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N87" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -6663,28 +6697,25 @@
         <v>616</v>
       </c>
       <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
         <v>617</v>
       </c>
-      <c r="I88" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" t="s">
-        <v>21</v>
-      </c>
       <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" t="s">
         <v>618</v>
       </c>
-      <c r="L88" t="s">
-        <v>23</v>
-      </c>
-      <c r="M88" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6707,28 +6738,25 @@
         <v>623</v>
       </c>
       <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
         <v>624</v>
       </c>
-      <c r="I89" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" t="s">
-        <v>21</v>
-      </c>
       <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" t="s">
         <v>625</v>
       </c>
-      <c r="L89" t="s">
-        <v>23</v>
-      </c>
-      <c r="M89" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6751,28 +6779,25 @@
         <v>630</v>
       </c>
       <c r="H90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
         <v>631</v>
       </c>
-      <c r="I90" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" t="s">
-        <v>21</v>
-      </c>
       <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" t="s">
         <v>632</v>
       </c>
-      <c r="L90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M90" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -6795,28 +6820,25 @@
         <v>637</v>
       </c>
       <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
         <v>638</v>
       </c>
-      <c r="I91" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>21</v>
-      </c>
       <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" t="s">
         <v>639</v>
       </c>
-      <c r="L91" t="s">
-        <v>23</v>
-      </c>
-      <c r="M91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N91" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6839,28 +6861,25 @@
         <v>644</v>
       </c>
       <c r="H92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
         <v>645</v>
       </c>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>21</v>
-      </c>
       <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" t="s">
         <v>646</v>
       </c>
-      <c r="L92" t="s">
-        <v>23</v>
-      </c>
-      <c r="M92" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6883,28 +6902,25 @@
         <v>651</v>
       </c>
       <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
         <v>652</v>
       </c>
-      <c r="I93" t="s">
-        <v>21</v>
-      </c>
-      <c r="J93" t="s">
-        <v>21</v>
-      </c>
       <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" t="s">
         <v>653</v>
       </c>
-      <c r="L93" t="s">
-        <v>23</v>
-      </c>
-      <c r="M93" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6927,28 +6943,25 @@
         <v>658</v>
       </c>
       <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
         <v>659</v>
       </c>
-      <c r="I94" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" t="s">
-        <v>21</v>
-      </c>
       <c r="K94" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" t="s">
         <v>660</v>
       </c>
-      <c r="L94" t="s">
-        <v>23</v>
-      </c>
-      <c r="M94" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -6971,28 +6984,25 @@
         <v>665</v>
       </c>
       <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
         <v>666</v>
       </c>
-      <c r="I95" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" t="s">
-        <v>21</v>
-      </c>
       <c r="K95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" t="s">
         <v>667</v>
       </c>
-      <c r="L95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M95" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -7015,28 +7025,25 @@
         <v>59</v>
       </c>
       <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
         <v>672</v>
       </c>
-      <c r="I96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" t="s">
-        <v>21</v>
-      </c>
       <c r="K96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" t="s">
         <v>673</v>
       </c>
-      <c r="L96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M96" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -7059,28 +7066,25 @@
         <v>678</v>
       </c>
       <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
         <v>679</v>
       </c>
-      <c r="I97" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97" t="s">
-        <v>21</v>
-      </c>
       <c r="K97" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" t="s">
         <v>680</v>
       </c>
-      <c r="L97" t="s">
-        <v>23</v>
-      </c>
-      <c r="M97" t="s">
-        <v>24</v>
-      </c>
-      <c r="N97" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -7103,28 +7107,25 @@
         <v>685</v>
       </c>
       <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
         <v>686</v>
       </c>
-      <c r="I98" t="s">
-        <v>21</v>
-      </c>
-      <c r="J98" t="s">
-        <v>21</v>
-      </c>
       <c r="K98" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" t="s">
         <v>687</v>
       </c>
-      <c r="L98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M98" t="s">
-        <v>24</v>
-      </c>
-      <c r="N98" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -7147,28 +7148,25 @@
         <v>692</v>
       </c>
       <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s">
         <v>693</v>
       </c>
-      <c r="I99" t="s">
-        <v>21</v>
-      </c>
-      <c r="J99" t="s">
-        <v>21</v>
-      </c>
       <c r="K99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" t="s">
         <v>694</v>
       </c>
-      <c r="L99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M99" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -7191,28 +7189,25 @@
         <v>102</v>
       </c>
       <c r="H100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
         <v>699</v>
       </c>
-      <c r="I100" t="s">
-        <v>21</v>
-      </c>
-      <c r="J100" t="s">
-        <v>21</v>
-      </c>
       <c r="K100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100" t="s">
         <v>700</v>
       </c>
-      <c r="L100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M100" t="s">
-        <v>24</v>
-      </c>
-      <c r="N100" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -7235,35 +7230,32 @@
         <v>574</v>
       </c>
       <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s">
         <v>705</v>
       </c>
-      <c r="I101" t="s">
-        <v>21</v>
-      </c>
-      <c r="J101" t="s">
-        <v>21</v>
-      </c>
       <c r="K101" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" t="s">
         <v>706</v>
       </c>
-      <c r="L101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M101" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" t="s">
-        <v>807</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid label" error="Please choose from the dropdown." promptTitle="Label" prompt="Select: same / different / unsure" sqref="A2:A101" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid label" error="Please choose from the dropdown." promptTitle="Label" prompt="Select: same / different / unsure" sqref="A2:A101">
       <formula1>"same,different,unsure"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>